--- a/medicine/Enfance/Raymond_Briggs/Raymond_Briggs.xlsx
+++ b/medicine/Enfance/Raymond_Briggs/Raymond_Briggs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Briggs (né le 18 janvier 1934 à Wimbledon et mort le 9 août 2022 à Brighton[1]) est un illustrateur, dessinateur et écrivain britannique. 
-Il est surtout connu pour son œuvre Le Bonhomme de neige, adaptée en un dessin animé (1982) qui est diffusé chaque année durant le temps des Fêtes par la télévision britannique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Briggs (né le 18 janvier 1934 à Wimbledon et mort le 9 août 2022 à Brighton) est un illustrateur, dessinateur et écrivain britannique. 
+Il est surtout connu pour son œuvre Le Bonhomme de neige, adaptée en un dessin animé (1982) qui est diffusé chaque année durant le temps des Fêtes par la télévision britannique.
 </t>
         </is>
       </c>
@@ -514,19 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse, formation et début de carrière
-Raymond Briggs est né à Wimbledon, d'Ethel (1895-1971) et d'Ernest Briggs (1900-1971), respectivement femme de chambre et laitier. Il fréquente la Rutlish School (en), qui est, à l'époque, une grammar school. Dès son plus jeune âge, il développe un intérêt pour le dessin. Malgré les réticences de son père, il entame des études de peinture au Wimbledon College of Art (en) et de typographie au Central Saint Martins College of Art and Design de 1949 à 1953[3].
-De 1953 à 1955, il est conscrit au Royal Corps of Signals à la garnison de Catterick, où il est draughtsman (en)[4]. Il retourne par la suite à l'étude de la peinture, cette fois à la Slade School of Fine Art, dont il est diplômé en 1957.
-Après quelque temps à pratiquer son art, il devient un illustrateur professionnel et se spécialise en littérature d'enfance et de jeunesse. En 1961, il enseigne l'illustration au Brighton School of Art (en), enseignement qu'il poursuivra jusqu'en 1986[3],[5].
+          <t>Jeunesse, formation et début de carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Briggs est né à Wimbledon, d'Ethel (1895-1971) et d'Ernest Briggs (1900-1971), respectivement femme de chambre et laitier. Il fréquente la Rutlish School (en), qui est, à l'époque, une grammar school. Dès son plus jeune âge, il développe un intérêt pour le dessin. Malgré les réticences de son père, il entame des études de peinture au Wimbledon College of Art (en) et de typographie au Central Saint Martins College of Art and Design de 1949 à 1953.
+De 1953 à 1955, il est conscrit au Royal Corps of Signals à la garnison de Catterick, où il est draughtsman (en). Il retourne par la suite à l'étude de la peinture, cette fois à la Slade School of Fine Art, dont il est diplômé en 1957.
+Après quelque temps à pratiquer son art, il devient un illustrateur professionnel et se spécialise en littérature d'enfance et de jeunesse. En 1961, il enseigne l'illustration au Brighton School of Art (en), enseignement qu'il poursuivra jusqu'en 1986,.
 En 1958, il illustre Peter and the Piskies: Cornish Folk and Fairy Tales (en), une anthologie de contes de fée réalisée par Ruth Manning-Sanders et publiée par Oxford University Press.
-Années 1970 et 1980
-Au début des années 1970, Raymond Briggs perd ses parents[réf. souhaitée]. En 1973, sa femme Jean, souffrant de schizophrénie, meurt de leucémie[réf. souhaitée].
-Il publie ses premiers travaux majeurs tels Father Christmas (en) (1973), Father Christmas Goes on Holiday (1975) et Fungus the Bogeyman (en) (1977). Ces derniers sont sous forme de comics, ce qui diffère de la forme classique séparant les illustrations du texte. S'inspirant de sa dernière œuvre Fungus the Bogeyman[trad 1],[6], Raymond Briggs crée Le Bonhomme de neige (1978), qui ne contient aucun mot et est illustré entièrement au crayon[7]. L'ouvrage est récompensé de plusieurs prix, et obtient la " Mention " Prix Critique en herbe, de la Foire du livre de jeunesse de Bologne en 1979[8]. Le Bonhomme de neige devient l'œuvre la plus connue de Raymond Briggs lorsqu'elle est adaptée en 1982 en dessin animé, diffusé depuis chaque année à la télévision britannique.
-Par la suite, Raymond Briggs continue à développer ses travaux dans le même format, créant cependant plus de contenu pour adultes. Il publie ainsi Gentleman Jim (1980), Quand souffle le vent (1982) et The Tin-Pot Foreign General and the Old Iron Woman (en) (1984).
-En 1983, il obtient à nouveau la « Mention » prix Critique en herbe, de la Foire du livre de jeunesse de Bologne[9] pour  Fungus the bogeyman.
-Années 1990 et 2000
-En 1993, Raymond Briggsest reconnu comme le The Children's Author of the Year par le British Book Awards (en). En 1999, sa nouvelle Ethel and Ernest remporte le Best Illustrated Book du même organisme.
-En 2008, il vit dans une petite maison de Westmeston dans le Sussex, continue d'écrire et de dessiner[10],[11].
 </t>
         </is>
       </c>
@@ -552,10 +561,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Années 1970 et 1980</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 1970, Raymond Briggs perd ses parents[réf. souhaitée]. En 1973, sa femme Jean, souffrant de schizophrénie, meurt de leucémie[réf. souhaitée].
+Il publie ses premiers travaux majeurs tels Father Christmas (en) (1973), Father Christmas Goes on Holiday (1975) et Fungus the Bogeyman (en) (1977). Ces derniers sont sous forme de comics, ce qui diffère de la forme classique séparant les illustrations du texte. S'inspirant de sa dernière œuvre Fungus the Bogeyman[trad 1] Raymond Briggs crée Le Bonhomme de neige (1978), qui ne contient aucun mot et est illustré entièrement au crayon. L'ouvrage est récompensé de plusieurs prix, et obtient la " Mention " Prix Critique en herbe, de la Foire du livre de jeunesse de Bologne en 1979. Le Bonhomme de neige devient l'œuvre la plus connue de Raymond Briggs lorsqu'elle est adaptée en 1982 en dessin animé, diffusé depuis chaque année à la télévision britannique.
+Par la suite, Raymond Briggs continue à développer ses travaux dans le même format, créant cependant plus de contenu pour adultes. Il publie ainsi Gentleman Jim (1980), Quand souffle le vent (1982) et The Tin-Pot Foreign General and the Old Iron Woman (en) (1984).
+En 1983, il obtient à nouveau la « Mention » prix Critique en herbe, de la Foire du livre de jeunesse de Bologne pour  Fungus the bogeyman.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raymond_Briggs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Briggs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 1990 et 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, Raymond Briggsest reconnu comme le The Children's Author of the Year par le British Book Awards (en). En 1999, sa nouvelle Ethel and Ernest remporte le Best Illustrated Book du même organisme.
+En 2008, il vit dans une petite maison de Westmeston dans le Sussex, continue d'écrire et de dessiner,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Raymond_Briggs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Briggs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sélection d'œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1966 : Mother Goose Treasury
@@ -582,31 +671,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Raymond_Briggs</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Raymond_Briggs</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Snowman (1982) VHS  (ISBN 0-7912-0007-8)
@@ -627,42 +718,44 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Raymond_Briggs</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Raymond_Briggs</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Briggs a remporté de nombreux prix[12],[6], dont notamment :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Briggs a remporté de nombreux prix dont notamment :
 1966 : la Kate Greenaway Medal, pour The Mother Goose Treasury
 1973 : la Kate Greenaway Medal, pour Father Christmas
 1977 : le Francis Williams Award for Illustration du Victoria and Albert Museum, pour Father Christmas
 1979 : le Boston Globe-Horn Book Award
 1979 : le Silver Pen Award, en Hollande
-1979 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne[8] (Italie) pour Le Bonhomme de neige
+1979 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne (Italie) pour Le Bonhomme de neige
 1982 : le Children's Rights Workshop Other Award
 1982 : le Francis Williams Award for Illustration pour The Snowman
-1983 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne[9] (Italie) Fungus the bogeyman
+1983 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne (Italie) Fungus the bogeyman
 1992 : le Kurt Maschler Award pour The Man
 1992 : le Children’s Author of the Year du British Book Awards
 1998 : le Illustrated Book of the Year du British Book Awards, pour Ethel and Ernest
